--- a/assets/excel/Daftar Golongan.xlsx
+++ b/assets/excel/Daftar Golongan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Daftar Golongan</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Golongan</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>I/D</t>
   </si>
   <si>
@@ -60,6 +63,12 @@
   </si>
   <si>
     <t>IV/B</t>
+  </si>
+  <si>
+    <t>IV/C</t>
+  </si>
+  <si>
+    <t>IV/D</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -449,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -482,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -526,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -541,6 +550,39 @@
       </c>
       <c r="C14" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Daftar Golongan.xlsx
+++ b/assets/excel/Daftar Golongan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Daftar Golongan</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>IV/D</t>
+  </si>
+  <si>
+    <t>IV/E</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -583,6 +586,17 @@
       </c>
       <c r="C17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Daftar Golongan.xlsx
+++ b/assets/excel/Daftar Golongan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Daftar Golongan</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Golongan</t>
   </si>
   <si>
-    <t>-</t>
+    <t>I/B</t>
   </si>
   <si>
     <t>I/D</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>IV/E</t>
+  </si>
+  <si>
+    <t>II/D</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -597,6 +600,17 @@
       </c>
       <c r="C18" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
